--- a/pandapower/test/shortcircuit/SCE_Tests/pf_bus_sc_results_all_cases.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/pf_bus_sc_results_all_cases.xlsx
@@ -79,16 +79,16 @@
     <t>pf_rk0_ohm</t>
   </si>
   <si>
+    <t>pf_xk0_ohm</t>
+  </si>
+  <si>
     <t>pf_rk1_ohm</t>
   </si>
   <si>
-    <t>pf_rk2_ohm</t>
+    <t>pf_xk1_ohm</t>
   </si>
   <si>
-    <t>pf_xk0_ohm</t>
-  </si>
-  <si>
-    <t>pf_xk1_ohm</t>
+    <t>pf_rk2_ohm</t>
   </si>
   <si>
     <t>pf_xk2_ohm</t>
@@ -620,16 +620,16 @@
         <v>0.4428835862221404</v>
       </c>
       <c r="I2">
+        <v>4.40271973851942</v>
+      </c>
+      <c r="J2">
         <v>0.4378163569293868</v>
       </c>
-      <c r="J2">
+      <c r="K2">
+        <v>4.378163482534344</v>
+      </c>
+      <c r="L2">
         <v>0.4378163569022844</v>
-      </c>
-      <c r="K2">
-        <v>4.40271973851942</v>
-      </c>
-      <c r="L2">
-        <v>4.378163482534344</v>
       </c>
       <c r="M2">
         <v>4.378163482487168</v>
@@ -661,16 +661,16 @@
         <v>4.185910274912399</v>
       </c>
       <c r="I3">
+        <v>5.870495034006284</v>
+      </c>
+      <c r="J3">
         <v>0.9578163680532483</v>
       </c>
-      <c r="J3">
+      <c r="K3">
+        <v>4.968163485641733</v>
+      </c>
+      <c r="L3">
         <v>0.9578163680261339</v>
-      </c>
-      <c r="K3">
-        <v>5.870495034006284</v>
-      </c>
-      <c r="L3">
-        <v>4.968163485641733</v>
       </c>
       <c r="M3">
         <v>4.968163485594578</v>
@@ -702,16 +702,16 @@
         <v>7.895175922947225</v>
       </c>
       <c r="I4">
+        <v>7.335082718453467</v>
+      </c>
+      <c r="J4">
         <v>1.477816378918005</v>
       </c>
-      <c r="J4">
+      <c r="K4">
+        <v>5.558163489027947</v>
+      </c>
+      <c r="L4">
         <v>1.477816378890885</v>
-      </c>
-      <c r="K4">
-        <v>7.335082718453467</v>
-      </c>
-      <c r="L4">
-        <v>5.558163489027947</v>
       </c>
       <c r="M4">
         <v>5.558163488980837</v>
@@ -743,16 +743,16 @@
         <v>7.895175922947224</v>
       </c>
       <c r="I5">
+        <v>7.335082718453457</v>
+      </c>
+      <c r="J5">
         <v>1.477816378918004</v>
       </c>
-      <c r="J5">
+      <c r="K5">
+        <v>5.558163489027946</v>
+      </c>
+      <c r="L5">
         <v>1.477816378890884</v>
-      </c>
-      <c r="K5">
-        <v>7.335082718453457</v>
-      </c>
-      <c r="L5">
-        <v>5.558163489027946</v>
       </c>
       <c r="M5">
         <v>5.558163488980837</v>
@@ -838,16 +838,16 @@
         <v>0.5041743431842544</v>
       </c>
       <c r="I2">
+        <v>5.006897135806584</v>
+      </c>
+      <c r="J2">
         <v>0.4975185876946874</v>
       </c>
-      <c r="J2">
+      <c r="K2">
+        <v>4.975185775457811</v>
+      </c>
+      <c r="L2">
         <v>0.4975185877124232</v>
-      </c>
-      <c r="K2">
-        <v>5.006897135806584</v>
-      </c>
-      <c r="L2">
-        <v>4.975185775457811</v>
       </c>
       <c r="M2">
         <v>4.975185775488254</v>
@@ -879,16 +879,16 @@
         <v>7.698542227644789</v>
       </c>
       <c r="I3">
+        <v>6.432196710719398</v>
+      </c>
+      <c r="J3">
         <v>1.495918608642645</v>
       </c>
-      <c r="J3">
+      <c r="K3">
+        <v>5.565185778068525</v>
+      </c>
+      <c r="L3">
         <v>1.495918608660561</v>
-      </c>
-      <c r="K3">
-        <v>6.432196710719398</v>
-      </c>
-      <c r="L3">
-        <v>5.565185778068525</v>
       </c>
       <c r="M3">
         <v>5.565185778099361</v>
@@ -920,16 +920,16 @@
         <v>14.8217784003751</v>
       </c>
       <c r="I4">
+        <v>7.872438169825732</v>
+      </c>
+      <c r="J4">
         <v>2.494318629322498</v>
       </c>
-      <c r="J4">
+      <c r="K4">
+        <v>6.155185781258161</v>
+      </c>
+      <c r="L4">
         <v>2.494318629340454</v>
-      </c>
-      <c r="K4">
-        <v>7.872438169825732</v>
-      </c>
-      <c r="L4">
-        <v>6.155185781258161</v>
       </c>
       <c r="M4">
         <v>6.155185781289154</v>
@@ -961,16 +961,16 @@
         <v>14.82177840037509</v>
       </c>
       <c r="I5">
+        <v>7.872438169825724</v>
+      </c>
+      <c r="J5">
         <v>2.494318629322495</v>
       </c>
-      <c r="J5">
+      <c r="K5">
+        <v>6.155185781258152</v>
+      </c>
+      <c r="L5">
         <v>2.494318629340448</v>
-      </c>
-      <c r="K5">
-        <v>7.872438169825724</v>
-      </c>
-      <c r="L5">
-        <v>6.155185781258152</v>
       </c>
       <c r="M5">
         <v>6.15518578128915</v>
@@ -1056,16 +1056,16 @@
         <v>0.5041743431842544</v>
       </c>
       <c r="I2">
+        <v>5.006897135806584</v>
+      </c>
+      <c r="J2">
         <v>0.4975185876946874</v>
       </c>
-      <c r="J2">
+      <c r="K2">
+        <v>4.975185775457811</v>
+      </c>
+      <c r="L2">
         <v>0.4975185877124232</v>
-      </c>
-      <c r="K2">
-        <v>5.006897135806584</v>
-      </c>
-      <c r="L2">
-        <v>4.975185775457811</v>
       </c>
       <c r="M2">
         <v>4.975185775488254</v>
@@ -1097,16 +1097,16 @@
         <v>7.698542227644789</v>
       </c>
       <c r="I3">
+        <v>6.432196710719398</v>
+      </c>
+      <c r="J3">
         <v>1.495918608642645</v>
       </c>
-      <c r="J3">
+      <c r="K3">
+        <v>5.565185778068525</v>
+      </c>
+      <c r="L3">
         <v>1.495918608660561</v>
-      </c>
-      <c r="K3">
-        <v>6.432196710719398</v>
-      </c>
-      <c r="L3">
-        <v>5.565185778068525</v>
       </c>
       <c r="M3">
         <v>5.565185778099361</v>
@@ -1138,16 +1138,16 @@
         <v>14.8217784003751</v>
       </c>
       <c r="I4">
+        <v>7.872438169825732</v>
+      </c>
+      <c r="J4">
         <v>2.494318629322498</v>
       </c>
-      <c r="J4">
+      <c r="K4">
+        <v>6.155185781258161</v>
+      </c>
+      <c r="L4">
         <v>2.494318629340454</v>
-      </c>
-      <c r="K4">
-        <v>7.872438169825732</v>
-      </c>
-      <c r="L4">
-        <v>6.155185781258161</v>
       </c>
       <c r="M4">
         <v>6.155185781289154</v>
@@ -1179,16 +1179,16 @@
         <v>14.82177840037509</v>
       </c>
       <c r="I5">
+        <v>7.872438169825724</v>
+      </c>
+      <c r="J5">
         <v>2.494318629322495</v>
       </c>
-      <c r="J5">
+      <c r="K5">
+        <v>6.155185781258152</v>
+      </c>
+      <c r="L5">
         <v>2.494318629340448</v>
-      </c>
-      <c r="K5">
-        <v>7.872438169825724</v>
-      </c>
-      <c r="L5">
-        <v>6.155185781258152</v>
       </c>
       <c r="M5">
         <v>6.15518578128915</v>
@@ -1274,16 +1274,16 @@
         <v>0.4428835862221607</v>
       </c>
       <c r="I2">
+        <v>4.402719738519057</v>
+      </c>
+      <c r="J2">
         <v>0.437816356924225</v>
       </c>
-      <c r="J2">
+      <c r="K2">
+        <v>4.378163482487345</v>
+      </c>
+      <c r="L2">
         <v>0.4378163569023265</v>
-      </c>
-      <c r="K2">
-        <v>4.402719738519057</v>
-      </c>
-      <c r="L2">
-        <v>4.378163482487345</v>
       </c>
       <c r="M2">
         <v>4.378163482487091</v>
@@ -1315,16 +1315,16 @@
         <v>4.185910274912456</v>
       </c>
       <c r="I3">
+        <v>5.870495034005926</v>
+      </c>
+      <c r="J3">
         <v>0.9578163680481669</v>
       </c>
-      <c r="J3">
+      <c r="K3">
+        <v>4.968163485594707</v>
+      </c>
+      <c r="L3">
         <v>0.9578163680263008</v>
-      </c>
-      <c r="K3">
-        <v>5.870495034005926</v>
-      </c>
-      <c r="L3">
-        <v>4.968163485594707</v>
       </c>
       <c r="M3">
         <v>4.968163485594511</v>
@@ -1356,16 +1356,16 @@
         <v>7.895175922947306</v>
       </c>
       <c r="I4">
+        <v>7.335082718453107</v>
+      </c>
+      <c r="J4">
         <v>1.477816378913027</v>
       </c>
-      <c r="J4">
+      <c r="K4">
+        <v>5.558163488980915</v>
+      </c>
+      <c r="L4">
         <v>1.477816378891169</v>
-      </c>
-      <c r="K4">
-        <v>7.335082718453107</v>
-      </c>
-      <c r="L4">
-        <v>5.558163488980915</v>
       </c>
       <c r="M4">
         <v>5.558163488980771</v>
@@ -1397,16 +1397,16 @@
         <v>7.895175922947299</v>
       </c>
       <c r="I5">
+        <v>7.335082718453101</v>
+      </c>
+      <c r="J5">
         <v>1.477816378913028</v>
       </c>
-      <c r="J5">
+      <c r="K5">
+        <v>5.558163488980913</v>
+      </c>
+      <c r="L5">
         <v>1.477816378891169</v>
-      </c>
-      <c r="K5">
-        <v>7.335082718453101</v>
-      </c>
-      <c r="L5">
-        <v>5.558163488980913</v>
       </c>
       <c r="M5">
         <v>5.558163488980769</v>
@@ -1492,16 +1492,16 @@
         <v>0.4428835862221607</v>
       </c>
       <c r="I2">
+        <v>4.402719738519057</v>
+      </c>
+      <c r="J2">
         <v>0.437816356924225</v>
       </c>
-      <c r="J2">
+      <c r="K2">
+        <v>4.378163482487345</v>
+      </c>
+      <c r="L2">
         <v>0.4378163569023265</v>
-      </c>
-      <c r="K2">
-        <v>4.402719738519057</v>
-      </c>
-      <c r="L2">
-        <v>4.378163482487345</v>
       </c>
       <c r="M2">
         <v>4.378163482487091</v>
@@ -1533,16 +1533,16 @@
         <v>4.185910274912456</v>
       </c>
       <c r="I3">
+        <v>5.870495034005926</v>
+      </c>
+      <c r="J3">
         <v>0.9578163680481669</v>
       </c>
-      <c r="J3">
+      <c r="K3">
+        <v>4.968163485594707</v>
+      </c>
+      <c r="L3">
         <v>0.9578163680263008</v>
-      </c>
-      <c r="K3">
-        <v>5.870495034005926</v>
-      </c>
-      <c r="L3">
-        <v>4.968163485594707</v>
       </c>
       <c r="M3">
         <v>4.968163485594511</v>
@@ -1574,16 +1574,16 @@
         <v>7.895175922947306</v>
       </c>
       <c r="I4">
+        <v>7.335082718453107</v>
+      </c>
+      <c r="J4">
         <v>1.477816378913027</v>
       </c>
-      <c r="J4">
+      <c r="K4">
+        <v>5.558163488980915</v>
+      </c>
+      <c r="L4">
         <v>1.477816378891169</v>
-      </c>
-      <c r="K4">
-        <v>7.335082718453107</v>
-      </c>
-      <c r="L4">
-        <v>5.558163488980915</v>
       </c>
       <c r="M4">
         <v>5.558163488980771</v>
@@ -1615,16 +1615,16 @@
         <v>7.895175922947299</v>
       </c>
       <c r="I5">
+        <v>7.335082718453101</v>
+      </c>
+      <c r="J5">
         <v>1.477816378913028</v>
       </c>
-      <c r="J5">
+      <c r="K5">
+        <v>5.558163488980913</v>
+      </c>
+      <c r="L5">
         <v>1.477816378891169</v>
-      </c>
-      <c r="K5">
-        <v>7.335082718453101</v>
-      </c>
-      <c r="L5">
-        <v>5.558163488980913</v>
       </c>
       <c r="M5">
         <v>5.558163488980769</v>
@@ -1710,16 +1710,16 @@
         <v>0.5041743431842567</v>
       </c>
       <c r="I2">
+        <v>5.006897135806157</v>
+      </c>
+      <c r="J2">
         <v>0.4975185876920994</v>
       </c>
-      <c r="J2">
+      <c r="K2">
+        <v>4.975185775488431</v>
+      </c>
+      <c r="L2">
         <v>0.497518587712459</v>
-      </c>
-      <c r="K2">
-        <v>5.006897135806157</v>
-      </c>
-      <c r="L2">
-        <v>4.975185775488431</v>
       </c>
       <c r="M2">
         <v>4.97518577548815</v>
@@ -1751,16 +1751,16 @@
         <v>7.698542227644828</v>
       </c>
       <c r="I3">
+        <v>6.432196710718991</v>
+      </c>
+      <c r="J3">
         <v>1.495918608640806</v>
       </c>
-      <c r="J3">
+      <c r="K3">
+        <v>5.565185778099434</v>
+      </c>
+      <c r="L3">
         <v>1.495918608660816</v>
-      </c>
-      <c r="K3">
-        <v>6.432196710718991</v>
-      </c>
-      <c r="L3">
-        <v>5.565185778099434</v>
       </c>
       <c r="M3">
         <v>5.565185778099255</v>
@@ -1792,16 +1792,16 @@
         <v>14.82177840037519</v>
       </c>
       <c r="I4">
+        <v>7.872438169825329</v>
+      </c>
+      <c r="J4">
         <v>2.494318629320983</v>
       </c>
-      <c r="J4">
+      <c r="K4">
+        <v>6.155185781289128</v>
+      </c>
+      <c r="L4">
         <v>2.494318629340928</v>
-      </c>
-      <c r="K4">
-        <v>7.872438169825329</v>
-      </c>
-      <c r="L4">
-        <v>6.155185781289128</v>
       </c>
       <c r="M4">
         <v>6.155185781289043</v>
@@ -1833,16 +1833,16 @@
         <v>14.82177840037519</v>
       </c>
       <c r="I5">
+        <v>7.872438169825323</v>
+      </c>
+      <c r="J5">
         <v>2.494318629320986</v>
       </c>
-      <c r="J5">
+      <c r="K5">
+        <v>6.155185781289128</v>
+      </c>
+      <c r="L5">
         <v>2.494318629340926</v>
-      </c>
-      <c r="K5">
-        <v>7.872438169825323</v>
-      </c>
-      <c r="L5">
-        <v>6.155185781289128</v>
       </c>
       <c r="M5">
         <v>6.155185781289043</v>
@@ -1928,16 +1928,16 @@
         <v>0.5041743431842567</v>
       </c>
       <c r="I2">
+        <v>5.006897135806157</v>
+      </c>
+      <c r="J2">
         <v>0.4975185876920994</v>
       </c>
-      <c r="J2">
+      <c r="K2">
+        <v>4.975185775488431</v>
+      </c>
+      <c r="L2">
         <v>0.497518587712459</v>
-      </c>
-      <c r="K2">
-        <v>5.006897135806157</v>
-      </c>
-      <c r="L2">
-        <v>4.975185775488431</v>
       </c>
       <c r="M2">
         <v>4.97518577548815</v>
@@ -1969,16 +1969,16 @@
         <v>7.698542227644828</v>
       </c>
       <c r="I3">
+        <v>6.432196710718991</v>
+      </c>
+      <c r="J3">
         <v>1.495918608640806</v>
       </c>
-      <c r="J3">
+      <c r="K3">
+        <v>5.565185778099434</v>
+      </c>
+      <c r="L3">
         <v>1.495918608660816</v>
-      </c>
-      <c r="K3">
-        <v>6.432196710718991</v>
-      </c>
-      <c r="L3">
-        <v>5.565185778099434</v>
       </c>
       <c r="M3">
         <v>5.565185778099255</v>
@@ -2010,16 +2010,16 @@
         <v>14.82177840037519</v>
       </c>
       <c r="I4">
+        <v>7.872438169825329</v>
+      </c>
+      <c r="J4">
         <v>2.494318629320983</v>
       </c>
-      <c r="J4">
+      <c r="K4">
+        <v>6.155185781289128</v>
+      </c>
+      <c r="L4">
         <v>2.494318629340928</v>
-      </c>
-      <c r="K4">
-        <v>7.872438169825329</v>
-      </c>
-      <c r="L4">
-        <v>6.155185781289128</v>
       </c>
       <c r="M4">
         <v>6.155185781289043</v>
@@ -2051,16 +2051,16 @@
         <v>14.82177840037519</v>
       </c>
       <c r="I5">
+        <v>7.872438169825323</v>
+      </c>
+      <c r="J5">
         <v>2.494318629320986</v>
       </c>
-      <c r="J5">
+      <c r="K5">
+        <v>6.155185781289128</v>
+      </c>
+      <c r="L5">
         <v>2.494318629340926</v>
-      </c>
-      <c r="K5">
-        <v>7.872438169825323</v>
-      </c>
-      <c r="L5">
-        <v>6.155185781289128</v>
       </c>
       <c r="M5">
         <v>6.155185781289043</v>
@@ -2440,16 +2440,16 @@
         <v>0.4428835862221396</v>
       </c>
       <c r="I2">
+        <v>4.402719738519417</v>
+      </c>
+      <c r="J2">
         <v>0.4378163569293836</v>
       </c>
-      <c r="J2">
+      <c r="K2">
+        <v>4.378163482534338</v>
+      </c>
+      <c r="L2">
         <v>0.4378163569022834</v>
-      </c>
-      <c r="K2">
-        <v>4.402719738519417</v>
-      </c>
-      <c r="L2">
-        <v>4.378163482534338</v>
       </c>
       <c r="M2">
         <v>4.37816348248716</v>
@@ -2481,16 +2481,16 @@
         <v>4.185910274912402</v>
       </c>
       <c r="I3">
+        <v>5.870495034006279</v>
+      </c>
+      <c r="J3">
         <v>0.957816368053249</v>
       </c>
-      <c r="J3">
+      <c r="K3">
+        <v>4.968163485641724</v>
+      </c>
+      <c r="L3">
         <v>0.957816368026136</v>
-      </c>
-      <c r="K3">
-        <v>5.870495034006279</v>
-      </c>
-      <c r="L3">
-        <v>4.968163485641724</v>
       </c>
       <c r="M3">
         <v>4.968163485594566</v>
@@ -2522,16 +2522,16 @@
         <v>7.895175922947228</v>
       </c>
       <c r="I4">
+        <v>7.33508271845346</v>
+      </c>
+      <c r="J4">
         <v>1.477816378918006</v>
       </c>
-      <c r="J4">
+      <c r="K4">
+        <v>5.558163489027939</v>
+      </c>
+      <c r="L4">
         <v>1.477816378890888</v>
-      </c>
-      <c r="K4">
-        <v>7.33508271845346</v>
-      </c>
-      <c r="L4">
-        <v>5.558163489027939</v>
       </c>
       <c r="M4">
         <v>5.558163488980824</v>
@@ -2563,16 +2563,16 @@
         <v>7.895175922947228</v>
       </c>
       <c r="I5">
+        <v>7.335082718453452</v>
+      </c>
+      <c r="J5">
         <v>1.477816378918005</v>
       </c>
-      <c r="J5">
+      <c r="K5">
+        <v>5.558163489027939</v>
+      </c>
+      <c r="L5">
         <v>1.477816378890889</v>
-      </c>
-      <c r="K5">
-        <v>7.335082718453452</v>
-      </c>
-      <c r="L5">
-        <v>5.558163489027939</v>
       </c>
       <c r="M5">
         <v>5.558163488980824</v>
@@ -2658,16 +2658,16 @@
         <v>0.4428835862221404</v>
       </c>
       <c r="I2">
+        <v>4.40271973851942</v>
+      </c>
+      <c r="J2">
         <v>0.4378163569293868</v>
       </c>
-      <c r="J2">
+      <c r="K2">
+        <v>4.378163482534344</v>
+      </c>
+      <c r="L2">
         <v>0.4378163569022844</v>
-      </c>
-      <c r="K2">
-        <v>4.40271973851942</v>
-      </c>
-      <c r="L2">
-        <v>4.378163482534344</v>
       </c>
       <c r="M2">
         <v>4.378163482487168</v>
@@ -2699,16 +2699,16 @@
         <v>4.185910274912399</v>
       </c>
       <c r="I3">
+        <v>5.870495034006284</v>
+      </c>
+      <c r="J3">
         <v>0.9578163680532483</v>
       </c>
-      <c r="J3">
+      <c r="K3">
+        <v>4.968163485641733</v>
+      </c>
+      <c r="L3">
         <v>0.9578163680261339</v>
-      </c>
-      <c r="K3">
-        <v>5.870495034006284</v>
-      </c>
-      <c r="L3">
-        <v>4.968163485641733</v>
       </c>
       <c r="M3">
         <v>4.968163485594578</v>
@@ -2740,16 +2740,16 @@
         <v>7.895175922947225</v>
       </c>
       <c r="I4">
+        <v>7.335082718453467</v>
+      </c>
+      <c r="J4">
         <v>1.477816378918005</v>
       </c>
-      <c r="J4">
+      <c r="K4">
+        <v>5.558163489027947</v>
+      </c>
+      <c r="L4">
         <v>1.477816378890885</v>
-      </c>
-      <c r="K4">
-        <v>7.335082718453467</v>
-      </c>
-      <c r="L4">
-        <v>5.558163489027947</v>
       </c>
       <c r="M4">
         <v>5.558163488980837</v>
@@ -2781,16 +2781,16 @@
         <v>7.895175922947224</v>
       </c>
       <c r="I5">
+        <v>7.335082718453457</v>
+      </c>
+      <c r="J5">
         <v>1.477816378918004</v>
       </c>
-      <c r="J5">
+      <c r="K5">
+        <v>5.558163489027946</v>
+      </c>
+      <c r="L5">
         <v>1.477816378890884</v>
-      </c>
-      <c r="K5">
-        <v>7.335082718453457</v>
-      </c>
-      <c r="L5">
-        <v>5.558163489027946</v>
       </c>
       <c r="M5">
         <v>5.558163488980837</v>
@@ -2876,16 +2876,16 @@
         <v>0.5041743431842544</v>
       </c>
       <c r="I2">
+        <v>5.006897135806584</v>
+      </c>
+      <c r="J2">
         <v>0.4975185876946874</v>
       </c>
-      <c r="J2">
+      <c r="K2">
+        <v>4.975185775457811</v>
+      </c>
+      <c r="L2">
         <v>0.4975185877124232</v>
-      </c>
-      <c r="K2">
-        <v>5.006897135806584</v>
-      </c>
-      <c r="L2">
-        <v>4.975185775457811</v>
       </c>
       <c r="M2">
         <v>4.975185775488254</v>
@@ -2917,16 +2917,16 @@
         <v>7.698542227644789</v>
       </c>
       <c r="I3">
+        <v>6.432196710719398</v>
+      </c>
+      <c r="J3">
         <v>1.495918608642645</v>
       </c>
-      <c r="J3">
+      <c r="K3">
+        <v>5.565185778068525</v>
+      </c>
+      <c r="L3">
         <v>1.495918608660561</v>
-      </c>
-      <c r="K3">
-        <v>6.432196710719398</v>
-      </c>
-      <c r="L3">
-        <v>5.565185778068525</v>
       </c>
       <c r="M3">
         <v>5.565185778099361</v>
@@ -2958,16 +2958,16 @@
         <v>14.8217784003751</v>
       </c>
       <c r="I4">
+        <v>7.872438169825732</v>
+      </c>
+      <c r="J4">
         <v>2.494318629322498</v>
       </c>
-      <c r="J4">
+      <c r="K4">
+        <v>6.155185781258161</v>
+      </c>
+      <c r="L4">
         <v>2.494318629340454</v>
-      </c>
-      <c r="K4">
-        <v>7.872438169825732</v>
-      </c>
-      <c r="L4">
-        <v>6.155185781258161</v>
       </c>
       <c r="M4">
         <v>6.155185781289154</v>
@@ -2999,16 +2999,16 @@
         <v>14.82177840037509</v>
       </c>
       <c r="I5">
+        <v>7.872438169825724</v>
+      </c>
+      <c r="J5">
         <v>2.494318629322495</v>
       </c>
-      <c r="J5">
+      <c r="K5">
+        <v>6.155185781258152</v>
+      </c>
+      <c r="L5">
         <v>2.494318629340448</v>
-      </c>
-      <c r="K5">
-        <v>7.872438169825724</v>
-      </c>
-      <c r="L5">
-        <v>6.155185781258152</v>
       </c>
       <c r="M5">
         <v>6.15518578128915</v>
@@ -3094,16 +3094,16 @@
         <v>0.5041743431842544</v>
       </c>
       <c r="I2">
+        <v>5.006897135806584</v>
+      </c>
+      <c r="J2">
         <v>0.4975185876946874</v>
       </c>
-      <c r="J2">
+      <c r="K2">
+        <v>4.975185775457811</v>
+      </c>
+      <c r="L2">
         <v>0.4975185877124232</v>
-      </c>
-      <c r="K2">
-        <v>5.006897135806584</v>
-      </c>
-      <c r="L2">
-        <v>4.975185775457811</v>
       </c>
       <c r="M2">
         <v>4.975185775488254</v>
@@ -3135,16 +3135,16 @@
         <v>7.698542227644789</v>
       </c>
       <c r="I3">
+        <v>6.432196710719398</v>
+      </c>
+      <c r="J3">
         <v>1.495918608642645</v>
       </c>
-      <c r="J3">
+      <c r="K3">
+        <v>5.565185778068525</v>
+      </c>
+      <c r="L3">
         <v>1.495918608660561</v>
-      </c>
-      <c r="K3">
-        <v>6.432196710719398</v>
-      </c>
-      <c r="L3">
-        <v>5.565185778068525</v>
       </c>
       <c r="M3">
         <v>5.565185778099361</v>
@@ -3176,16 +3176,16 @@
         <v>14.8217784003751</v>
       </c>
       <c r="I4">
+        <v>7.872438169825732</v>
+      </c>
+      <c r="J4">
         <v>2.494318629322498</v>
       </c>
-      <c r="J4">
+      <c r="K4">
+        <v>6.155185781258161</v>
+      </c>
+      <c r="L4">
         <v>2.494318629340454</v>
-      </c>
-      <c r="K4">
-        <v>7.872438169825732</v>
-      </c>
-      <c r="L4">
-        <v>6.155185781258161</v>
       </c>
       <c r="M4">
         <v>6.155185781289154</v>
@@ -3217,16 +3217,16 @@
         <v>14.82177840037509</v>
       </c>
       <c r="I5">
+        <v>7.872438169825724</v>
+      </c>
+      <c r="J5">
         <v>2.494318629322495</v>
       </c>
-      <c r="J5">
+      <c r="K5">
+        <v>6.155185781258152</v>
+      </c>
+      <c r="L5">
         <v>2.494318629340448</v>
-      </c>
-      <c r="K5">
-        <v>7.872438169825724</v>
-      </c>
-      <c r="L5">
-        <v>6.155185781258152</v>
       </c>
       <c r="M5">
         <v>6.15518578128915</v>
@@ -3312,16 +3312,16 @@
         <v>0.4428835862221404</v>
       </c>
       <c r="I2">
+        <v>4.40271973851942</v>
+      </c>
+      <c r="J2">
         <v>0.4378163569293868</v>
       </c>
-      <c r="J2">
+      <c r="K2">
+        <v>4.378163482534344</v>
+      </c>
+      <c r="L2">
         <v>0.4378163569022844</v>
-      </c>
-      <c r="K2">
-        <v>4.40271973851942</v>
-      </c>
-      <c r="L2">
-        <v>4.378163482534344</v>
       </c>
       <c r="M2">
         <v>4.378163482487168</v>
@@ -3353,16 +3353,16 @@
         <v>4.185910274912399</v>
       </c>
       <c r="I3">
+        <v>5.870495034006284</v>
+      </c>
+      <c r="J3">
         <v>0.9578163680532483</v>
       </c>
-      <c r="J3">
+      <c r="K3">
+        <v>4.968163485641733</v>
+      </c>
+      <c r="L3">
         <v>0.9578163680261339</v>
-      </c>
-      <c r="K3">
-        <v>5.870495034006284</v>
-      </c>
-      <c r="L3">
-        <v>4.968163485641733</v>
       </c>
       <c r="M3">
         <v>4.968163485594578</v>
@@ -3394,16 +3394,16 @@
         <v>7.895175922947225</v>
       </c>
       <c r="I4">
+        <v>7.335082718453467</v>
+      </c>
+      <c r="J4">
         <v>1.477816378918005</v>
       </c>
-      <c r="J4">
+      <c r="K4">
+        <v>5.558163489027947</v>
+      </c>
+      <c r="L4">
         <v>1.477816378890885</v>
-      </c>
-      <c r="K4">
-        <v>7.335082718453467</v>
-      </c>
-      <c r="L4">
-        <v>5.558163489027947</v>
       </c>
       <c r="M4">
         <v>5.558163488980837</v>
@@ -3435,16 +3435,16 @@
         <v>7.895175922947224</v>
       </c>
       <c r="I5">
+        <v>7.335082718453457</v>
+      </c>
+      <c r="J5">
         <v>1.477816378918004</v>
       </c>
-      <c r="J5">
+      <c r="K5">
+        <v>5.558163489027946</v>
+      </c>
+      <c r="L5">
         <v>1.477816378890884</v>
-      </c>
-      <c r="K5">
-        <v>7.335082718453457</v>
-      </c>
-      <c r="L5">
-        <v>5.558163489027946</v>
       </c>
       <c r="M5">
         <v>5.558163488980837</v>

--- a/pandapower/test/shortcircuit/SCE_Tests/pf_bus_sc_results_all_cases.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/pf_bus_sc_results_all_cases.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmaschke\PycharmProjects\pandapower\pandapower\test\shortcircuit\SCE_Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6E829D-D5F0-4B9B-86F3-590F539982D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="5025" yWindow="3240" windowWidth="28800" windowHeight="15345" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LLL_max" sheetId="1" r:id="rId1"/>
@@ -24,7 +30,7 @@
     <sheet name="LG_min" sheetId="15" r:id="rId15"/>
     <sheet name="LG_min_fault" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -97,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,17 +163,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -205,7 +219,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -239,6 +253,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -273,9 +288,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -448,14 +464,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,41 +488,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2.886751509779965</v>
+        <v>2.8867515097799652</v>
       </c>
       <c r="C2">
         <v>100.0000056753013</v>
       </c>
       <c r="D2">
-        <v>0.4378163569021192</v>
+        <v>0.43781635690211917</v>
       </c>
       <c r="E2">
-        <v>4.378163482487355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>4.3781634824873548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2.510392137651901</v>
+        <v>2.5103921376519009</v>
       </c>
       <c r="C3">
-        <v>86.96253458669071</v>
+        <v>86.962534586690708</v>
       </c>
       <c r="D3">
-        <v>0.957816368026046</v>
+        <v>0.95781636802604597</v>
       </c>
       <c r="E3">
         <v>4.968163485594749</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -514,7 +530,7 @@
         <v>2.208504056338167</v>
       </c>
       <c r="C4">
-        <v>76.50482468599324</v>
+        <v>76.504824685993242</v>
       </c>
       <c r="D4">
         <v>1.47781637889087</v>
@@ -523,7 +539,7 @@
         <v>5.558163488980985</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -531,10 +547,10 @@
         <v>2.208504056338167</v>
       </c>
       <c r="C5">
-        <v>76.50482468599326</v>
+        <v>76.504824685993256</v>
       </c>
       <c r="D5">
-        <v>1.477816378890871</v>
+        <v>1.4778163788908709</v>
       </c>
       <c r="E5">
         <v>5.558163488980985</v>
@@ -546,14 +562,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -602,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.170998762980853</v>
+        <v>1.1709987629808529</v>
       </c>
       <c r="D2">
         <v>1.171492593911478</v>
@@ -611,31 +627,31 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>13.52152902055428</v>
+        <v>13.521529020554279</v>
       </c>
       <c r="G2">
-        <v>13.5272312889689</v>
+        <v>13.527231288968901</v>
       </c>
       <c r="H2">
-        <v>0.4428835862221404</v>
+        <v>0.44288358622214041</v>
       </c>
       <c r="I2">
-        <v>4.40271973851942</v>
+        <v>4.4027197385194201</v>
       </c>
       <c r="J2">
-        <v>0.4378163569293868</v>
+        <v>0.43781635692938681</v>
       </c>
       <c r="K2">
-        <v>4.378163482534344</v>
+        <v>4.3781634825343438</v>
       </c>
       <c r="L2">
-        <v>0.4378163569022844</v>
+        <v>0.43781635690228438</v>
       </c>
       <c r="M2">
-        <v>4.378163482487168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.3781634824871682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -646,37 +662,37 @@
         <v>1.10849935256055</v>
       </c>
       <c r="D3">
-        <v>1.010036008422979</v>
+        <v>1.0100360084229789</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>12.79984799194719</v>
+        <v>12.799847991947191</v>
       </c>
       <c r="G3">
-        <v>11.66289122708445</v>
+        <v>11.662891227084449</v>
       </c>
       <c r="H3">
-        <v>4.185910274912399</v>
+        <v>4.1859102749123993</v>
       </c>
       <c r="I3">
         <v>5.870495034006284</v>
       </c>
       <c r="J3">
-        <v>0.9578163680532483</v>
+        <v>0.95781636805324832</v>
       </c>
       <c r="K3">
-        <v>4.968163485641733</v>
+        <v>4.9681634856417327</v>
       </c>
       <c r="L3">
         <v>0.9578163680261339</v>
       </c>
       <c r="M3">
-        <v>4.968163485594578</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>4.9681634855945784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -684,10 +700,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.040334427153928</v>
+        <v>1.0403344271539281</v>
       </c>
       <c r="D4">
-        <v>0.9016673918744195</v>
+        <v>0.90166739187441947</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -696,28 +712,28 @@
         <v>12.01274723129111</v>
       </c>
       <c r="G4">
-        <v>10.41155822836408</v>
+        <v>10.411558228364081</v>
       </c>
       <c r="H4">
-        <v>7.895175922947225</v>
+        <v>7.8951759229472254</v>
       </c>
       <c r="I4">
-        <v>7.335082718453467</v>
+        <v>7.3350827184534673</v>
       </c>
       <c r="J4">
         <v>1.477816378918005</v>
       </c>
       <c r="K4">
-        <v>5.558163489027947</v>
+        <v>5.5581634890279474</v>
       </c>
       <c r="L4">
-        <v>1.477816378890885</v>
+        <v>1.4778163788908849</v>
       </c>
       <c r="M4">
-        <v>5.558163488980837</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>5.5581634889808367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -725,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.040334427153928</v>
+        <v>1.0403344271539281</v>
       </c>
       <c r="D5">
-        <v>0.9016673918744195</v>
+        <v>0.90166739187441947</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -737,25 +753,25 @@
         <v>12.01274723129111</v>
       </c>
       <c r="G5">
-        <v>10.41155822836408</v>
+        <v>10.411558228364081</v>
       </c>
       <c r="H5">
-        <v>7.895175922947224</v>
+        <v>7.8951759229472236</v>
       </c>
       <c r="I5">
-        <v>7.335082718453457</v>
+        <v>7.3350827184534566</v>
       </c>
       <c r="J5">
-        <v>1.477816378918004</v>
+        <v>1.4778163789180041</v>
       </c>
       <c r="K5">
-        <v>5.558163489027946</v>
+        <v>5.5581634890279457</v>
       </c>
       <c r="L5">
         <v>1.477816378890884</v>
       </c>
       <c r="M5">
-        <v>5.558163488980837</v>
+        <v>5.5581634889808367</v>
       </c>
     </row>
   </sheetData>
@@ -764,14 +780,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,7 +828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -823,37 +839,37 @@
         <v>2.307394468727928</v>
       </c>
       <c r="D2">
-        <v>2.306476761395013</v>
+        <v>2.3064767613950128</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>26.64349635293446</v>
+        <v>26.643496352934459</v>
       </c>
       <c r="G2">
-        <v>26.63289958142054</v>
+        <v>26.632899581420538</v>
       </c>
       <c r="H2">
-        <v>0.5041743431842544</v>
+        <v>0.50417434318425436</v>
       </c>
       <c r="I2">
-        <v>5.006897135806584</v>
+        <v>5.0068971358065841</v>
       </c>
       <c r="J2">
-        <v>0.4975185876946874</v>
+        <v>0.49751858769468738</v>
       </c>
       <c r="K2">
-        <v>4.975185775457811</v>
+        <v>4.9751857754578106</v>
       </c>
       <c r="L2">
-        <v>0.4975185877124232</v>
+        <v>0.49751858771242319</v>
       </c>
       <c r="M2">
-        <v>4.975185775488254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.9751857754882538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -861,40 +877,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.144785402460348</v>
+        <v>2.1447854024603479</v>
       </c>
       <c r="D3">
-        <v>1.543474101037902</v>
+        <v>1.5434741010379021</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.76584858928923</v>
+        <v>24.765848589289231</v>
       </c>
       <c r="G3">
-        <v>17.82250375442897</v>
+        <v>17.822503754428968</v>
       </c>
       <c r="H3">
         <v>7.698542227644789</v>
       </c>
       <c r="I3">
-        <v>6.432196710719398</v>
+        <v>6.4321967107193982</v>
       </c>
       <c r="J3">
         <v>1.495918608642645</v>
       </c>
       <c r="K3">
-        <v>5.565185778068525</v>
+        <v>5.5651857780685248</v>
       </c>
       <c r="L3">
-        <v>1.495918608660561</v>
+        <v>1.4959186086605609</v>
       </c>
       <c r="M3">
-        <v>5.565185778099361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>5.5651857780993614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -905,13 +921,13 @@
         <v>1.791382665021896</v>
       </c>
       <c r="D4">
-        <v>1.312244351459671</v>
+        <v>1.3122443514596711</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.68510527744042</v>
+        <v>20.685105277440421</v>
       </c>
       <c r="G4">
         <v>15.15249259115614</v>
@@ -923,19 +939,19 @@
         <v>7.872438169825732</v>
       </c>
       <c r="J4">
-        <v>2.494318629322498</v>
+        <v>2.4943186293224979</v>
       </c>
       <c r="K4">
-        <v>6.155185781258161</v>
+        <v>6.1551857812581607</v>
       </c>
       <c r="L4">
-        <v>2.494318629340454</v>
+        <v>2.4943186293404538</v>
       </c>
       <c r="M4">
-        <v>6.155185781289154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>6.1551857812891537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -952,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.68510527744045</v>
+        <v>20.685105277440449</v>
       </c>
       <c r="G5">
         <v>15.15249259115612</v>
@@ -964,16 +980,16 @@
         <v>7.872438169825724</v>
       </c>
       <c r="J5">
-        <v>2.494318629322495</v>
+        <v>2.4943186293224948</v>
       </c>
       <c r="K5">
-        <v>6.155185781258152</v>
+        <v>6.1551857812581519</v>
       </c>
       <c r="L5">
         <v>2.494318629340448</v>
       </c>
       <c r="M5">
-        <v>6.15518578128915</v>
+        <v>6.1551857812891502</v>
       </c>
     </row>
   </sheetData>
@@ -982,14 +998,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1038,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.013102923845676</v>
+        <v>1.0131029238456759</v>
       </c>
       <c r="D2">
         <v>1.013588406235421</v>
@@ -1047,31 +1063,31 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>11.69830491598196</v>
+        <v>11.698304915981961</v>
       </c>
       <c r="G2">
         <v>11.70391078375008</v>
       </c>
       <c r="H2">
-        <v>0.5041743431842544</v>
+        <v>0.50417434318425436</v>
       </c>
       <c r="I2">
-        <v>5.006897135806584</v>
+        <v>5.0068971358065841</v>
       </c>
       <c r="J2">
-        <v>0.4975185876946874</v>
+        <v>0.49751858769468738</v>
       </c>
       <c r="K2">
-        <v>4.975185775457811</v>
+        <v>4.9751857754578106</v>
       </c>
       <c r="L2">
-        <v>0.4975185877124232</v>
+        <v>0.49751858771242319</v>
       </c>
       <c r="M2">
-        <v>4.975185775488254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.9751857754882538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1079,40 +1095,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.9576169384185383</v>
+        <v>0.95761693841853834</v>
       </c>
       <c r="D3">
-        <v>0.8150213495726398</v>
+        <v>0.81502134957263983</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>11.05760794352977</v>
+        <v>11.057607943529771</v>
       </c>
       <c r="G3">
-        <v>9.411055911421114</v>
+        <v>9.4110559114211139</v>
       </c>
       <c r="H3">
         <v>7.698542227644789</v>
       </c>
       <c r="I3">
-        <v>6.432196710719398</v>
+        <v>6.4321967107193982</v>
       </c>
       <c r="J3">
         <v>1.495918608642645</v>
       </c>
       <c r="K3">
-        <v>5.565185778068525</v>
+        <v>5.5651857780685248</v>
       </c>
       <c r="L3">
-        <v>1.495918608660561</v>
+        <v>1.4959186086605609</v>
       </c>
       <c r="M3">
-        <v>5.565185778099361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>5.5651857780993614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1120,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.8779780941084492</v>
+        <v>0.87797809410844918</v>
       </c>
       <c r="D4">
-        <v>0.7099194197390576</v>
+        <v>0.70991941973905759</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1132,7 +1148,7 @@
         <v>10.13801777952216</v>
       </c>
       <c r="G4">
-        <v>8.197443361785757</v>
+        <v>8.1974433617857567</v>
       </c>
       <c r="H4">
         <v>14.8217784003751</v>
@@ -1141,19 +1157,19 @@
         <v>7.872438169825732</v>
       </c>
       <c r="J4">
-        <v>2.494318629322498</v>
+        <v>2.4943186293224979</v>
       </c>
       <c r="K4">
-        <v>6.155185781258161</v>
+        <v>6.1551857812581607</v>
       </c>
       <c r="L4">
-        <v>2.494318629340454</v>
+        <v>2.4943186293404538</v>
       </c>
       <c r="M4">
-        <v>6.155185781289154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>6.1551857812891537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1161,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.8779780941084497</v>
+        <v>0.87797809410844974</v>
       </c>
       <c r="D5">
-        <v>0.7099194197390573</v>
+        <v>0.70991941973905726</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1173,7 +1189,7 @@
         <v>10.13801777952216</v>
       </c>
       <c r="G5">
-        <v>8.197443361785753</v>
+        <v>8.1974433617857532</v>
       </c>
       <c r="H5">
         <v>14.82177840037509</v>
@@ -1182,16 +1198,16 @@
         <v>7.872438169825724</v>
       </c>
       <c r="J5">
-        <v>2.494318629322495</v>
+        <v>2.4943186293224948</v>
       </c>
       <c r="K5">
-        <v>6.155185781258152</v>
+        <v>6.1551857812581519</v>
       </c>
       <c r="L5">
         <v>2.494318629340448</v>
       </c>
       <c r="M5">
-        <v>6.15518578128915</v>
+        <v>6.1551857812891502</v>
       </c>
     </row>
   </sheetData>
@@ -1200,14 +1216,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1262,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>33.27047707996278</v>
+        <v>33.270477079962781</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1271,25 +1299,25 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.4428835862221607</v>
+        <v>0.44288358622216067</v>
       </c>
       <c r="I2">
-        <v>4.402719738519057</v>
+        <v>4.4027197385190568</v>
       </c>
       <c r="J2">
-        <v>0.437816356924225</v>
+        <v>0.43781635692422499</v>
       </c>
       <c r="K2">
         <v>4.378163482487345</v>
       </c>
       <c r="L2">
-        <v>0.4378163569023265</v>
+        <v>0.43781635690232651</v>
       </c>
       <c r="M2">
         <v>4.378163482487091</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1303,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>25.96855904121619</v>
+        <v>25.968559041216189</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1312,25 +1340,25 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.185910274912456</v>
+        <v>4.1859102749124562</v>
       </c>
       <c r="I3">
-        <v>5.870495034005926</v>
+        <v>5.8704950340059261</v>
       </c>
       <c r="J3">
-        <v>0.9578163680481669</v>
+        <v>0.95781636804816694</v>
       </c>
       <c r="K3">
-        <v>4.968163485594707</v>
+        <v>4.9681634855947072</v>
       </c>
       <c r="L3">
-        <v>0.9578163680263008</v>
+        <v>0.95781636802630077</v>
       </c>
       <c r="M3">
-        <v>4.968163485594511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>4.9681634855945109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1353,30 +1381,30 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.895175922947306</v>
+        <v>7.8951759229473062</v>
       </c>
       <c r="I4">
-        <v>7.335082718453107</v>
+        <v>7.3350827184531067</v>
       </c>
       <c r="J4">
         <v>1.477816378913027</v>
       </c>
       <c r="K4">
-        <v>5.558163488980915</v>
+        <v>5.5581634889809148</v>
       </c>
       <c r="L4">
-        <v>1.477816378891169</v>
+        <v>1.4778163788911689</v>
       </c>
       <c r="M4">
-        <v>5.558163488980771</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>5.5581634889807709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1.780157175146008</v>
+        <v>1.7801571751460079</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1385,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.55548448540783</v>
+        <v>20.555484485407831</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1394,22 +1422,22 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.895175922947299</v>
+        <v>7.8951759229472991</v>
       </c>
       <c r="I5">
-        <v>7.335082718453101</v>
+        <v>7.3350827184531013</v>
       </c>
       <c r="J5">
-        <v>1.477816378913028</v>
+        <v>1.4778163789130281</v>
       </c>
       <c r="K5">
-        <v>5.558163488980913</v>
+        <v>5.5581634889809131</v>
       </c>
       <c r="L5">
-        <v>1.477816378891169</v>
+        <v>1.4778163788911689</v>
       </c>
       <c r="M5">
-        <v>5.558163488980769</v>
+        <v>5.5581634889807692</v>
       </c>
     </row>
   </sheetData>
@@ -1418,14 +1446,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1466,12 +1494,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1.170817013876365</v>
+        <v>1.1708170138763649</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1489,30 +1517,30 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.4428835862221607</v>
+        <v>0.44288358622216067</v>
       </c>
       <c r="I2">
-        <v>4.402719738519057</v>
+        <v>4.4027197385190568</v>
       </c>
       <c r="J2">
-        <v>0.437816356924225</v>
+        <v>0.43781635692422499</v>
       </c>
       <c r="K2">
         <v>4.378163482487345</v>
       </c>
       <c r="L2">
-        <v>0.4378163569023265</v>
+        <v>0.43781635690232651</v>
       </c>
       <c r="M2">
         <v>4.378163482487091</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1.020468705618021</v>
+        <v>1.0204687056180211</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1530,25 +1558,25 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.185910274912456</v>
+        <v>4.1859102749124562</v>
       </c>
       <c r="I3">
-        <v>5.870495034005926</v>
+        <v>5.8704950340059261</v>
       </c>
       <c r="J3">
-        <v>0.9578163680481669</v>
+        <v>0.95781636804816694</v>
       </c>
       <c r="K3">
-        <v>4.968163485594707</v>
+        <v>4.9681634855947072</v>
       </c>
       <c r="L3">
-        <v>0.9578163680263008</v>
+        <v>0.95781636802630077</v>
       </c>
       <c r="M3">
-        <v>4.968163485594511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>4.9681634855945109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1571,25 +1599,25 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.895175922947306</v>
+        <v>7.8951759229473062</v>
       </c>
       <c r="I4">
-        <v>7.335082718453107</v>
+        <v>7.3350827184531067</v>
       </c>
       <c r="J4">
         <v>1.477816378913027</v>
       </c>
       <c r="K4">
-        <v>5.558163488980915</v>
+        <v>5.5581634889809148</v>
       </c>
       <c r="L4">
-        <v>1.477816378891169</v>
+        <v>1.4778163788911689</v>
       </c>
       <c r="M4">
-        <v>5.558163488980771</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>5.5581634889807709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1612,22 +1640,22 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.895175922947299</v>
+        <v>7.8951759229472991</v>
       </c>
       <c r="I5">
-        <v>7.335082718453101</v>
+        <v>7.3350827184531013</v>
       </c>
       <c r="J5">
-        <v>1.477816378913028</v>
+        <v>1.4778163789130281</v>
       </c>
       <c r="K5">
-        <v>5.558163488980913</v>
+        <v>5.5581634889809131</v>
       </c>
       <c r="L5">
-        <v>1.477816378891169</v>
+        <v>1.4778163788911689</v>
       </c>
       <c r="M5">
-        <v>5.558163488980769</v>
+        <v>5.5581634889807692</v>
       </c>
     </row>
   </sheetData>
@@ -1636,14 +1664,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1684,12 +1712,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2.304451709204056</v>
+        <v>2.3044517092040562</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1698,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>26.6095162928691</v>
+        <v>26.609516292869099</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1707,30 +1735,30 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.5041743431842567</v>
+        <v>0.50417434318425669</v>
       </c>
       <c r="I2">
-        <v>5.006897135806157</v>
+        <v>5.0068971358061569</v>
       </c>
       <c r="J2">
-        <v>0.4975185876920994</v>
+        <v>0.49751858769209939</v>
       </c>
       <c r="K2">
-        <v>4.975185775488431</v>
+        <v>4.9751857754884314</v>
       </c>
       <c r="L2">
-        <v>0.497518587712459</v>
+        <v>0.49751858771245899</v>
       </c>
       <c r="M2">
-        <v>4.97518577548815</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.9751857754881499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1.684845595525955</v>
+        <v>1.6848455955259549</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1739,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>19.45492116239731</v>
+        <v>19.454921162397309</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1748,30 +1776,30 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.698542227644828</v>
+        <v>7.6985422276448281</v>
       </c>
       <c r="I3">
-        <v>6.432196710718991</v>
+        <v>6.4321967107189906</v>
       </c>
       <c r="J3">
-        <v>1.495918608640806</v>
+        <v>1.4959186086408061</v>
       </c>
       <c r="K3">
-        <v>5.565185778099434</v>
+        <v>5.5651857780994343</v>
       </c>
       <c r="L3">
-        <v>1.495918608660816</v>
+        <v>1.4959186086608161</v>
       </c>
       <c r="M3">
-        <v>5.565185778099255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>5.5651857780992549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1.224899235816899</v>
+        <v>1.2248992358168991</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1780,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.14391807058107</v>
+        <v>14.143918070581069</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1789,30 +1817,30 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14.82177840037519</v>
+        <v>14.821778400375189</v>
       </c>
       <c r="I4">
-        <v>7.872438169825329</v>
+        <v>7.8724381698253287</v>
       </c>
       <c r="J4">
-        <v>2.494318629320983</v>
+        <v>2.4943186293209831</v>
       </c>
       <c r="K4">
         <v>6.155185781289128</v>
       </c>
       <c r="L4">
-        <v>2.494318629340928</v>
+        <v>2.4943186293409281</v>
       </c>
       <c r="M4">
-        <v>6.155185781289043</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>6.1551857812890427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1.224899235816899</v>
+        <v>1.2248992358168991</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1821,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.14391807058107</v>
+        <v>14.143918070581069</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1830,22 +1858,22 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14.82177840037519</v>
+        <v>14.821778400375189</v>
       </c>
       <c r="I5">
-        <v>7.872438169825323</v>
+        <v>7.8724381698253234</v>
       </c>
       <c r="J5">
-        <v>2.494318629320986</v>
+        <v>2.4943186293209858</v>
       </c>
       <c r="K5">
         <v>6.155185781289128</v>
       </c>
       <c r="L5">
-        <v>2.494318629340926</v>
+        <v>2.4943186293409259</v>
       </c>
       <c r="M5">
-        <v>6.155185781289043</v>
+        <v>6.1551857812890427</v>
       </c>
     </row>
   </sheetData>
@@ -1854,14 +1882,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +1930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1925,30 +1953,30 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.5041743431842567</v>
+        <v>0.50417434318425669</v>
       </c>
       <c r="I2">
-        <v>5.006897135806157</v>
+        <v>5.0068971358061569</v>
       </c>
       <c r="J2">
-        <v>0.4975185876920994</v>
+        <v>0.49751858769209939</v>
       </c>
       <c r="K2">
-        <v>4.975185775488431</v>
+        <v>4.9751857754884314</v>
       </c>
       <c r="L2">
-        <v>0.497518587712459</v>
+        <v>0.49751858771245899</v>
       </c>
       <c r="M2">
-        <v>4.97518577548815</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.9751857754881499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.8351922431613388</v>
+        <v>0.83519224316133878</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1957,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.643969328285728</v>
+        <v>9.6439693282857277</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1966,30 +1994,30 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.698542227644828</v>
+        <v>7.6985422276448281</v>
       </c>
       <c r="I3">
-        <v>6.432196710718991</v>
+        <v>6.4321967107189906</v>
       </c>
       <c r="J3">
-        <v>1.495918608640806</v>
+        <v>1.4959186086408061</v>
       </c>
       <c r="K3">
-        <v>5.565185778099434</v>
+        <v>5.5651857780994343</v>
       </c>
       <c r="L3">
-        <v>1.495918608660816</v>
+        <v>1.4959186086608161</v>
       </c>
       <c r="M3">
-        <v>5.565185778099255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>5.5651857780992549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.6999120446284219</v>
+        <v>0.69991204462842194</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1998,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.081888147505616</v>
+        <v>8.0818881475056159</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2007,30 +2035,30 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14.82177840037519</v>
+        <v>14.821778400375189</v>
       </c>
       <c r="I4">
-        <v>7.872438169825329</v>
+        <v>7.8724381698253287</v>
       </c>
       <c r="J4">
-        <v>2.494318629320983</v>
+        <v>2.4943186293209831</v>
       </c>
       <c r="K4">
         <v>6.155185781289128</v>
       </c>
       <c r="L4">
-        <v>2.494318629340928</v>
+        <v>2.4943186293409281</v>
       </c>
       <c r="M4">
-        <v>6.155185781289043</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>6.1551857812890427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.699912044628422</v>
+        <v>0.69991204462842205</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2039,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.081888147505618</v>
+        <v>8.0818881475056177</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2048,22 +2076,22 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14.82177840037519</v>
+        <v>14.821778400375189</v>
       </c>
       <c r="I5">
-        <v>7.872438169825323</v>
+        <v>7.8724381698253234</v>
       </c>
       <c r="J5">
-        <v>2.494318629320986</v>
+        <v>2.4943186293209858</v>
       </c>
       <c r="K5">
         <v>6.155185781289128</v>
       </c>
       <c r="L5">
-        <v>2.494318629340926</v>
+        <v>2.4943186293409259</v>
       </c>
       <c r="M5">
-        <v>6.155185781289043</v>
+        <v>6.1551857812890427</v>
       </c>
     </row>
   </sheetData>
@@ -2072,14 +2100,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2096,7 +2124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2104,33 +2132,33 @@
         <v>1.171673335464547</v>
       </c>
       <c r="C2">
-        <v>40.58795493796577</v>
+        <v>40.587954937965769</v>
       </c>
       <c r="D2">
-        <v>0.4378163569021192</v>
+        <v>0.43781635690211917</v>
       </c>
       <c r="E2">
-        <v>4.378163482487355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>4.3781634824873548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1.093756663759769</v>
+        <v>1.0937566637597691</v>
       </c>
       <c r="C3">
-        <v>37.88884225497898</v>
+        <v>37.888842254978982</v>
       </c>
       <c r="D3">
-        <v>0.957816368026046</v>
+        <v>0.95781636802604597</v>
       </c>
       <c r="E3">
         <v>4.968163485594749</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2138,7 +2166,7 @@
         <v>1.025409000107341</v>
       </c>
       <c r="C4">
-        <v>35.5212097344863</v>
+        <v>35.521209734486298</v>
       </c>
       <c r="D4">
         <v>1.47781637889087</v>
@@ -2147,7 +2175,7 @@
         <v>5.558163488980985</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2155,10 +2183,10 @@
         <v>1.025409000107341</v>
       </c>
       <c r="C5">
-        <v>35.52120973448628</v>
+        <v>35.521209734486277</v>
       </c>
       <c r="D5">
-        <v>1.477816378890871</v>
+        <v>1.4778163788908709</v>
       </c>
       <c r="E5">
         <v>5.558163488980985</v>
@@ -2170,14 +2198,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2194,7 +2222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2202,21 +2230,21 @@
         <v>2.309401157785159</v>
       </c>
       <c r="C2">
-        <v>80.00000280684567</v>
+        <v>80.000002806845671</v>
       </c>
       <c r="D2">
-        <v>0.4975185876920429</v>
+        <v>0.49751858769204288</v>
       </c>
       <c r="E2">
-        <v>4.975185775488434</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>4.9751857754884341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2.00373849936558</v>
+        <v>2.0037384993655798</v>
       </c>
       <c r="C3">
         <v>69.41153771966006</v>
@@ -2225,10 +2253,10 @@
         <v>1.495918608640318</v>
       </c>
       <c r="E3">
-        <v>5.565185778099493</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>5.5651857780994929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2236,16 +2264,16 @@
         <v>1.73864531011964</v>
       </c>
       <c r="C4">
-        <v>60.22844026937127</v>
+        <v>60.228440269371269</v>
       </c>
       <c r="D4">
-        <v>2.494318629320343</v>
+        <v>2.4943186293203432</v>
       </c>
       <c r="E4">
-        <v>6.155185781289236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>6.1551857812892363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2253,13 +2281,13 @@
         <v>1.73864531011964</v>
       </c>
       <c r="C5">
-        <v>60.22844026937127</v>
+        <v>60.228440269371269</v>
       </c>
       <c r="D5">
-        <v>2.494318629320343</v>
+        <v>2.4943186293203432</v>
       </c>
       <c r="E5">
-        <v>6.155185781289236</v>
+        <v>6.1551857812892363</v>
       </c>
     </row>
   </sheetData>
@@ -2268,14 +2296,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2292,29 +2320,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1.013804257538716</v>
+        <v>1.0138042575387161</v>
       </c>
       <c r="C2">
-        <v>35.11920965973396</v>
+        <v>35.119209659733961</v>
       </c>
       <c r="D2">
-        <v>0.4975185876920429</v>
+        <v>0.49751858769204288</v>
       </c>
       <c r="E2">
-        <v>4.975185775488434</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>4.9751857754884341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.9310281468726644</v>
+        <v>0.93102814687266444</v>
       </c>
       <c r="C3">
         <v>32.25176107320307</v>
@@ -2323,41 +2351,41 @@
         <v>1.495918608640318</v>
       </c>
       <c r="E3">
-        <v>5.565185778099493</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>5.5651857780994929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.8592250112494602</v>
+        <v>0.85922501124946016</v>
       </c>
       <c r="C4">
-        <v>29.7644274923601</v>
+        <v>29.764427492360099</v>
       </c>
       <c r="D4">
-        <v>2.494318629320343</v>
+        <v>2.4943186293203432</v>
       </c>
       <c r="E4">
-        <v>6.155185781289236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>6.1551857812892363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.8592250112494602</v>
+        <v>0.85922501124946016</v>
       </c>
       <c r="C5">
-        <v>29.7644274923601</v>
+        <v>29.764427492360099</v>
       </c>
       <c r="D5">
-        <v>2.494318629320343</v>
+        <v>2.4943186293203432</v>
       </c>
       <c r="E5">
-        <v>6.155185781289236</v>
+        <v>6.1551857812892363</v>
       </c>
     </row>
   </sheetData>
@@ -2366,14 +2394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2414,7 +2442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2422,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.50000014187911</v>
+        <v>2.5000001418791098</v>
       </c>
       <c r="D2">
-        <v>2.50000014187911</v>
+        <v>2.5000001418791098</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2437,25 +2465,25 @@
         <v>28.86751509776013</v>
       </c>
       <c r="H2">
-        <v>0.4428835862221396</v>
+        <v>0.44288358622213958</v>
       </c>
       <c r="I2">
-        <v>4.402719738519417</v>
+        <v>4.4027197385194166</v>
       </c>
       <c r="J2">
-        <v>0.4378163569293836</v>
+        <v>0.43781635692938359</v>
       </c>
       <c r="K2">
-        <v>4.378163482534338</v>
+        <v>4.3781634825343376</v>
       </c>
       <c r="L2">
-        <v>0.4378163569022834</v>
+        <v>0.43781635690228338</v>
       </c>
       <c r="M2">
-        <v>4.37816348248716</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.3781634824871603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2463,40 +2491,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.174063364664714</v>
+        <v>2.1740633646647138</v>
       </c>
       <c r="D3">
-        <v>2.174063364664714</v>
+        <v>2.1740633646647138</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25.10392137648953</v>
+        <v>25.103921376489531</v>
       </c>
       <c r="G3">
-        <v>25.10392137648953</v>
+        <v>25.103921376489531</v>
       </c>
       <c r="H3">
         <v>4.185910274912402</v>
       </c>
       <c r="I3">
-        <v>5.870495034006279</v>
+        <v>5.8704950340062787</v>
       </c>
       <c r="J3">
-        <v>0.957816368053249</v>
+        <v>0.95781636805324899</v>
       </c>
       <c r="K3">
-        <v>4.968163485641724</v>
+        <v>4.9681634856417238</v>
       </c>
       <c r="L3">
-        <v>0.957816368026136</v>
+        <v>0.95781636802613601</v>
       </c>
       <c r="M3">
         <v>4.968163485594566</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2522,22 +2550,22 @@
         <v>7.895175922947228</v>
       </c>
       <c r="I4">
-        <v>7.33508271845346</v>
+        <v>7.3350827184534602</v>
       </c>
       <c r="J4">
-        <v>1.477816378918006</v>
+        <v>1.4778163789180061</v>
       </c>
       <c r="K4">
-        <v>5.558163489027939</v>
+        <v>5.5581634890279394</v>
       </c>
       <c r="L4">
         <v>1.477816378890888</v>
       </c>
       <c r="M4">
-        <v>5.558163488980824</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>5.5581634889808242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2563,19 +2591,19 @@
         <v>7.895175922947228</v>
       </c>
       <c r="I5">
-        <v>7.335082718453452</v>
+        <v>7.3350827184534522</v>
       </c>
       <c r="J5">
         <v>1.477816378918005</v>
       </c>
       <c r="K5">
-        <v>5.558163489027939</v>
+        <v>5.5581634890279394</v>
       </c>
       <c r="L5">
-        <v>1.477816378890889</v>
+        <v>1.4778163788908889</v>
       </c>
       <c r="M5">
-        <v>5.558163488980824</v>
+        <v>5.5581634889808242</v>
       </c>
     </row>
   </sheetData>
@@ -2584,14 +2612,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2632,7 +2660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2640,40 +2668,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.470726304873382</v>
+        <v>1.4707263048733821</v>
       </c>
       <c r="D2">
-        <v>1.470726304873382</v>
+        <v>1.4707263048733821</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>16.98248456045822</v>
+        <v>16.982484560458222</v>
       </c>
       <c r="G2">
-        <v>16.98248456045822</v>
+        <v>16.982484560458222</v>
       </c>
       <c r="H2">
-        <v>0.4428835862221404</v>
+        <v>0.44288358622214041</v>
       </c>
       <c r="I2">
-        <v>4.40271973851942</v>
+        <v>4.4027197385194201</v>
       </c>
       <c r="J2">
-        <v>0.4378163569293868</v>
+        <v>0.43781635692938681</v>
       </c>
       <c r="K2">
-        <v>4.378163482534344</v>
+        <v>4.3781634825343438</v>
       </c>
       <c r="L2">
-        <v>0.4378163569022844</v>
+        <v>0.43781635690228438</v>
       </c>
       <c r="M2">
-        <v>4.378163482487168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.3781634824871682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2690,31 +2718,31 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.43375684233873</v>
+        <v>15.433756842338729</v>
       </c>
       <c r="G3">
-        <v>15.43375684233873</v>
+        <v>15.433756842338729</v>
       </c>
       <c r="H3">
-        <v>4.185910274912399</v>
+        <v>4.1859102749123993</v>
       </c>
       <c r="I3">
         <v>5.870495034006284</v>
       </c>
       <c r="J3">
-        <v>0.9578163680532483</v>
+        <v>0.95781636805324832</v>
       </c>
       <c r="K3">
-        <v>4.968163485641733</v>
+        <v>4.9681634856417327</v>
       </c>
       <c r="L3">
         <v>0.9578163680261339</v>
       </c>
       <c r="M3">
-        <v>4.968163485594578</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>4.9681634855945784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2737,25 +2765,25 @@
         <v>14.13422222551495</v>
       </c>
       <c r="H4">
-        <v>7.895175922947225</v>
+        <v>7.8951759229472254</v>
       </c>
       <c r="I4">
-        <v>7.335082718453467</v>
+        <v>7.3350827184534673</v>
       </c>
       <c r="J4">
         <v>1.477816378918005</v>
       </c>
       <c r="K4">
-        <v>5.558163489027947</v>
+        <v>5.5581634890279474</v>
       </c>
       <c r="L4">
-        <v>1.477816378890885</v>
+        <v>1.4778163788908849</v>
       </c>
       <c r="M4">
-        <v>5.558163488980837</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>5.5581634889808367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2763,37 +2791,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.224059551003056</v>
+        <v>1.2240595510030561</v>
       </c>
       <c r="D5">
-        <v>1.224059551003056</v>
+        <v>1.2240595510030561</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>14.13422222551494</v>
+        <v>14.134222225514939</v>
       </c>
       <c r="G5">
-        <v>14.13422222551494</v>
+        <v>14.134222225514939</v>
       </c>
       <c r="H5">
-        <v>7.895175922947224</v>
+        <v>7.8951759229472236</v>
       </c>
       <c r="I5">
-        <v>7.335082718453457</v>
+        <v>7.3350827184534566</v>
       </c>
       <c r="J5">
-        <v>1.477816378918004</v>
+        <v>1.4778163789180041</v>
       </c>
       <c r="K5">
-        <v>5.558163489027946</v>
+        <v>5.5581634890279457</v>
       </c>
       <c r="L5">
         <v>1.477816378890884</v>
       </c>
       <c r="M5">
-        <v>5.558163488980837</v>
+        <v>5.5581634889808367</v>
       </c>
     </row>
   </sheetData>
@@ -2802,14 +2830,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2850,7 +2878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2858,40 +2886,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.000000070175935</v>
+        <v>2.0000000701759348</v>
       </c>
       <c r="D2">
-        <v>2.000000070175935</v>
+        <v>2.0000000701759348</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.09401157790693</v>
+        <v>23.094011577906929</v>
       </c>
       <c r="G2">
-        <v>23.09401157790693</v>
+        <v>23.094011577906929</v>
       </c>
       <c r="H2">
-        <v>0.5041743431842544</v>
+        <v>0.50417434318425436</v>
       </c>
       <c r="I2">
-        <v>5.006897135806584</v>
+        <v>5.0068971358065841</v>
       </c>
       <c r="J2">
-        <v>0.4975185876946874</v>
+        <v>0.49751858769468738</v>
       </c>
       <c r="K2">
-        <v>4.975185775457811</v>
+        <v>4.9751857754578106</v>
       </c>
       <c r="L2">
-        <v>0.4975185877124232</v>
+        <v>0.49751858771242319</v>
       </c>
       <c r="M2">
-        <v>4.975185775488254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.9751857754882538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2908,31 +2936,31 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.03738499368474</v>
+        <v>20.037384993684739</v>
       </c>
       <c r="G3">
-        <v>20.03738499368474</v>
+        <v>20.037384993684739</v>
       </c>
       <c r="H3">
         <v>7.698542227644789</v>
       </c>
       <c r="I3">
-        <v>6.432196710719398</v>
+        <v>6.4321967107193982</v>
       </c>
       <c r="J3">
         <v>1.495918608642645</v>
       </c>
       <c r="K3">
-        <v>5.565185778068525</v>
+        <v>5.5651857780685248</v>
       </c>
       <c r="L3">
-        <v>1.495918608660561</v>
+        <v>1.4959186086605609</v>
       </c>
       <c r="M3">
-        <v>5.565185778099361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>5.5651857780993614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2940,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.505711006735514</v>
+        <v>1.5057110067355139</v>
       </c>
       <c r="D4">
-        <v>1.505711006735514</v>
+        <v>1.5057110067355139</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2961,19 +2989,19 @@
         <v>7.872438169825732</v>
       </c>
       <c r="J4">
-        <v>2.494318629322498</v>
+        <v>2.4943186293224979</v>
       </c>
       <c r="K4">
-        <v>6.155185781258161</v>
+        <v>6.1551857812581607</v>
       </c>
       <c r="L4">
-        <v>2.494318629340454</v>
+        <v>2.4943186293404538</v>
       </c>
       <c r="M4">
-        <v>6.155185781289154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>6.1551857812891537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2981,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.505711006735514</v>
+        <v>1.5057110067355139</v>
       </c>
       <c r="D5">
-        <v>1.505711006735514</v>
+        <v>1.5057110067355139</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3002,16 +3030,16 @@
         <v>7.872438169825724</v>
       </c>
       <c r="J5">
-        <v>2.494318629322495</v>
+        <v>2.4943186293224948</v>
       </c>
       <c r="K5">
-        <v>6.155185781258152</v>
+        <v>6.1551857812581519</v>
       </c>
       <c r="L5">
         <v>2.494318629340448</v>
       </c>
       <c r="M5">
-        <v>6.15518578128915</v>
+        <v>6.1551857812891502</v>
       </c>
     </row>
   </sheetData>
@@ -3020,14 +3048,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3068,7 +3096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3091,25 +3119,25 @@
         <v>14.33735740297908</v>
       </c>
       <c r="H2">
-        <v>0.5041743431842544</v>
+        <v>0.50417434318425436</v>
       </c>
       <c r="I2">
-        <v>5.006897135806584</v>
+        <v>5.0068971358065841</v>
       </c>
       <c r="J2">
-        <v>0.4975185876946874</v>
+        <v>0.49751858769468738</v>
       </c>
       <c r="K2">
-        <v>4.975185775457811</v>
+        <v>4.9751857754578106</v>
       </c>
       <c r="L2">
-        <v>0.4975185877124232</v>
+        <v>0.49751858771242319</v>
       </c>
       <c r="M2">
-        <v>4.975185775488254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.9751857754882538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3126,31 +3154,31 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>12.828850870249</v>
+        <v>12.828850870248999</v>
       </c>
       <c r="G3">
-        <v>12.828850870249</v>
+        <v>12.828850870248999</v>
       </c>
       <c r="H3">
         <v>7.698542227644789</v>
       </c>
       <c r="I3">
-        <v>6.432196710719398</v>
+        <v>6.4321967107193982</v>
       </c>
       <c r="J3">
         <v>1.495918608642645</v>
       </c>
       <c r="K3">
-        <v>5.565185778068525</v>
+        <v>5.5651857780685248</v>
       </c>
       <c r="L3">
-        <v>1.495918608660561</v>
+        <v>1.4959186086605609</v>
       </c>
       <c r="M3">
-        <v>5.565185778099361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>5.5651857780993614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3158,19 +3186,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.000723486994605</v>
+        <v>1.0007234869946049</v>
       </c>
       <c r="D4">
-        <v>1.000723486994605</v>
+        <v>1.0007234869946049</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>11.55535949201433</v>
+        <v>11.555359492014331</v>
       </c>
       <c r="G4">
-        <v>11.55535949201433</v>
+        <v>11.555359492014331</v>
       </c>
       <c r="H4">
         <v>14.8217784003751</v>
@@ -3179,19 +3207,19 @@
         <v>7.872438169825732</v>
       </c>
       <c r="J4">
-        <v>2.494318629322498</v>
+        <v>2.4943186293224979</v>
       </c>
       <c r="K4">
-        <v>6.155185781258161</v>
+        <v>6.1551857812581607</v>
       </c>
       <c r="L4">
-        <v>2.494318629340454</v>
+        <v>2.4943186293404538</v>
       </c>
       <c r="M4">
-        <v>6.155185781289154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>6.1551857812891537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3199,19 +3227,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.000723486994605</v>
+        <v>1.0007234869946049</v>
       </c>
       <c r="D5">
-        <v>1.000723486994605</v>
+        <v>1.0007234869946049</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>11.55535949201433</v>
+        <v>11.555359492014331</v>
       </c>
       <c r="G5">
-        <v>11.55535949201433</v>
+        <v>11.555359492014331</v>
       </c>
       <c r="H5">
         <v>14.82177840037509</v>
@@ -3220,16 +3248,16 @@
         <v>7.872438169825724</v>
       </c>
       <c r="J5">
-        <v>2.494318629322495</v>
+        <v>2.4943186293224948</v>
       </c>
       <c r="K5">
-        <v>6.155185781258152</v>
+        <v>6.1551857812581519</v>
       </c>
       <c r="L5">
         <v>2.494318629340448</v>
       </c>
       <c r="M5">
-        <v>6.15518578128915</v>
+        <v>6.1551857812891502</v>
       </c>
     </row>
   </sheetData>
@@ -3238,14 +3266,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3286,7 +3314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3294,40 +3322,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.884527493204643</v>
+        <v>2.8845274932046432</v>
       </c>
       <c r="D2">
-        <v>2.883549636712145</v>
+        <v>2.8835496367121451</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>33.30765449373155</v>
+        <v>33.307654493731548</v>
       </c>
       <c r="G2">
-        <v>33.29636317954809</v>
+        <v>33.296363179548088</v>
       </c>
       <c r="H2">
-        <v>0.4428835862221404</v>
+        <v>0.44288358622214041</v>
       </c>
       <c r="I2">
-        <v>4.40271973851942</v>
+        <v>4.4027197385194201</v>
       </c>
       <c r="J2">
-        <v>0.4378163569293868</v>
+        <v>0.43781635692938681</v>
       </c>
       <c r="K2">
-        <v>4.378163482534344</v>
+        <v>4.3781634825343438</v>
       </c>
       <c r="L2">
-        <v>0.4378163569022844</v>
+        <v>0.43781635690228438</v>
       </c>
       <c r="M2">
-        <v>4.378163482487168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.3781634824871682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3335,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.659777356923221</v>
+        <v>2.6597773569232208</v>
       </c>
       <c r="D3">
-        <v>2.088302030918968</v>
+        <v>2.0883020309189679</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3350,25 +3378,25 @@
         <v>24.11363479400617</v>
       </c>
       <c r="H3">
-        <v>4.185910274912399</v>
+        <v>4.1859102749123993</v>
       </c>
       <c r="I3">
         <v>5.870495034006284</v>
       </c>
       <c r="J3">
-        <v>0.9578163680532483</v>
+        <v>0.95781636805324832</v>
       </c>
       <c r="K3">
-        <v>4.968163485641733</v>
+        <v>4.9681634856417327</v>
       </c>
       <c r="L3">
         <v>0.9578163680261339</v>
       </c>
       <c r="M3">
-        <v>4.968163485594578</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>4.9681634855945784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3376,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.314120905097126</v>
+        <v>2.3141209050971261</v>
       </c>
       <c r="D4">
         <v>1.728412445116583</v>
@@ -3388,28 +3416,28 @@
         <v>26.72116654990332</v>
       </c>
       <c r="G4">
-        <v>19.95798780917517</v>
+        <v>19.957987809175169</v>
       </c>
       <c r="H4">
-        <v>7.895175922947225</v>
+        <v>7.8951759229472254</v>
       </c>
       <c r="I4">
-        <v>7.335082718453467</v>
+        <v>7.3350827184534673</v>
       </c>
       <c r="J4">
         <v>1.477816378918005</v>
       </c>
       <c r="K4">
-        <v>5.558163489027947</v>
+        <v>5.5581634890279474</v>
       </c>
       <c r="L4">
-        <v>1.477816378890885</v>
+        <v>1.4778163788908849</v>
       </c>
       <c r="M4">
-        <v>5.558163488980837</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>5.5581634889808367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3429,25 +3457,25 @@
         <v>26.72116654990333</v>
       </c>
       <c r="G5">
-        <v>19.95798780917515</v>
+        <v>19.957987809175151</v>
       </c>
       <c r="H5">
-        <v>7.895175922947224</v>
+        <v>7.8951759229472236</v>
       </c>
       <c r="I5">
-        <v>7.335082718453457</v>
+        <v>7.3350827184534566</v>
       </c>
       <c r="J5">
-        <v>1.477816378918004</v>
+        <v>1.4778163789180041</v>
       </c>
       <c r="K5">
-        <v>5.558163489027946</v>
+        <v>5.5581634890279457</v>
       </c>
       <c r="L5">
         <v>1.477816378890884</v>
       </c>
       <c r="M5">
-        <v>5.558163488980837</v>
+        <v>5.5581634889808367</v>
       </c>
     </row>
   </sheetData>
